--- a/SchedulingData/dynamic9/pso/scheduling2_20.xlsx
+++ b/SchedulingData/dynamic9/pso/scheduling2_20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,79 +466,79 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>229.5</v>
+        <v>215.82</v>
       </c>
       <c r="D2" t="n">
-        <v>278.42</v>
+        <v>253.58</v>
       </c>
       <c r="E2" t="n">
-        <v>11.328</v>
+        <v>13.312</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>249.34</v>
+        <v>222.52</v>
       </c>
       <c r="D3" t="n">
-        <v>318.84</v>
+        <v>290.12</v>
       </c>
       <c r="E3" t="n">
-        <v>10.736</v>
+        <v>12.628</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>243.5</v>
+        <v>253.58</v>
       </c>
       <c r="D4" t="n">
-        <v>281.94</v>
+        <v>291.58</v>
       </c>
       <c r="E4" t="n">
-        <v>10.496</v>
+        <v>11.152</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>209.84</v>
+        <v>246.34</v>
       </c>
       <c r="D5" t="n">
-        <v>274.34</v>
+        <v>330.62</v>
       </c>
       <c r="E5" t="n">
-        <v>11.776</v>
+        <v>11.068</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -546,222 +546,241 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>281.94</v>
+        <v>231.6</v>
       </c>
       <c r="D6" t="n">
-        <v>340.14</v>
+        <v>265.3</v>
       </c>
       <c r="E6" t="n">
-        <v>8.256</v>
+        <v>12.66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>225.5</v>
+        <v>271.2</v>
       </c>
       <c r="D7" t="n">
-        <v>277.26</v>
+        <v>330.1</v>
       </c>
       <c r="E7" t="n">
-        <v>12.464</v>
+        <v>8.619999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>277.26</v>
+        <v>330.62</v>
       </c>
       <c r="D8" t="n">
-        <v>328.04</v>
+        <v>366.12</v>
       </c>
       <c r="E8" t="n">
-        <v>9.496</v>
+        <v>8.648</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>238.06</v>
+        <v>291.58</v>
       </c>
       <c r="D9" t="n">
-        <v>295.76</v>
+        <v>332.56</v>
       </c>
       <c r="E9" t="n">
-        <v>12.584</v>
+        <v>8.183999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>295.76</v>
+        <v>265.3</v>
       </c>
       <c r="D10" t="n">
-        <v>350.14</v>
+        <v>328.14</v>
       </c>
       <c r="E10" t="n">
-        <v>9.776</v>
+        <v>9.956</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>274.34</v>
+        <v>290.12</v>
       </c>
       <c r="D11" t="n">
-        <v>319.14</v>
+        <v>344.5</v>
       </c>
       <c r="E11" t="n">
-        <v>8.916</v>
+        <v>9.82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>319.14</v>
+        <v>200.94</v>
       </c>
       <c r="D12" t="n">
-        <v>366.04</v>
+        <v>262.5</v>
       </c>
       <c r="E12" t="n">
-        <v>5.856</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>340.14</v>
+        <v>330.1</v>
       </c>
       <c r="D13" t="n">
-        <v>398.9</v>
+        <v>370.52</v>
       </c>
       <c r="E13" t="n">
-        <v>5.5</v>
+        <v>5.708</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>328.04</v>
+        <v>262.5</v>
       </c>
       <c r="D14" t="n">
-        <v>370.26</v>
+        <v>312.4</v>
       </c>
       <c r="E14" t="n">
-        <v>6.904</v>
+        <v>11.44</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>350.14</v>
+        <v>328.14</v>
       </c>
       <c r="D15" t="n">
-        <v>397.94</v>
+        <v>385.26</v>
       </c>
       <c r="E15" t="n">
-        <v>7.616</v>
+        <v>7.364</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>318.84</v>
+        <v>370.52</v>
       </c>
       <c r="D16" t="n">
-        <v>374.24</v>
+        <v>430.42</v>
       </c>
       <c r="E16" t="n">
-        <v>8.316000000000001</v>
+        <v>2.848</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>pond13</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>344.5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>378.46</v>
+      </c>
+      <c r="E17" t="n">
+        <v>7.064</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
         <v>1</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>pond62</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>278.42</v>
-      </c>
-      <c r="D17" t="n">
-        <v>328.64</v>
-      </c>
-      <c r="E17" t="n">
-        <v>8.416</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>pond8</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>332.56</v>
+      </c>
+      <c r="D18" t="n">
+        <v>399.16</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5.124</v>
       </c>
     </row>
   </sheetData>
